--- a/xlsx/民權運動_intext.xlsx
+++ b/xlsx/民權運動_intext.xlsx
@@ -29,7 +29,7 @@
     <t>馬丁·路德·金</t>
   </si>
   <si>
-    <t>政策_政策_美國_民權運動</t>
+    <t>体育运动_体育运动_种族歧视_民權運動</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
